--- a/CASUAL/LA GSO/GONZALES, MARIO.xlsx
+++ b/CASUAL/LA GSO/GONZALES, MARIO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA GSO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA GSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B966CD9-0E52-4F99-93A6-9D82D19F7308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="3" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="109">
   <si>
     <t>PERIOD</t>
   </si>
@@ -358,12 +357,18 @@
   </si>
   <si>
     <t>11/23,24/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>1/22,23/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -721,17 +726,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -741,6 +743,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1252,7 +1257,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1269,25 +1274,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K112" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K113" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1299,25 +1304,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K87" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K87" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1624,34 +1629,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K112"/>
+  <dimension ref="A2:K113"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A85" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A85" activePane="bottomLeft"/>
       <selection activeCell="D8" sqref="D8"/>
-      <selection pane="bottomLeft" activeCell="C88" sqref="C88"/>
+      <selection pane="bottomLeft" activeCell="K90" sqref="K90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1663,16 +1668,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="48"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1681,16 +1686,16 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="47"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="51"/>
+      <c r="K3" s="52"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -1701,18 +1706,18 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="47"/>
+      <c r="G4" s="48"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="48"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="48"/>
+      <c r="K4" s="49"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -1720,7 +1725,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -1733,24 +1738,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1785,7 +1790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1794,7 +1799,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>63.396000000000001</v>
+        <v>64.646000000000001</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1804,12 +1809,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>88.75</v>
+        <v>88</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
         <v>43</v>
       </c>
@@ -1831,7 +1836,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>43101</v>
       </c>
@@ -1851,7 +1856,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="39"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>43132</v>
       </c>
@@ -1871,7 +1876,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="39"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>43160</v>
       </c>
@@ -1891,7 +1896,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>43191</v>
       </c>
@@ -1911,7 +1916,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>43221</v>
       </c>
@@ -1931,7 +1936,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>43252</v>
       </c>
@@ -1957,7 +1962,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>43282</v>
       </c>
@@ -1977,7 +1982,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="39"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>43313</v>
       </c>
@@ -1997,7 +2002,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="39"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>43344</v>
       </c>
@@ -2023,7 +2028,7 @@
         <v>43371</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>43374</v>
       </c>
@@ -2043,7 +2048,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>43405</v>
       </c>
@@ -2063,7 +2068,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>43435</v>
       </c>
@@ -2087,7 +2092,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="s">
         <v>50</v>
       </c>
@@ -2105,7 +2110,7 @@
       <c r="J23" s="12"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>43466</v>
       </c>
@@ -2125,7 +2130,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>43497</v>
       </c>
@@ -2145,7 +2150,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>43525</v>
       </c>
@@ -2171,7 +2176,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>43556</v>
       </c>
@@ -2191,7 +2196,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>43586</v>
       </c>
@@ -2211,7 +2216,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>43617</v>
       </c>
@@ -2231,7 +2236,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>43647</v>
       </c>
@@ -2251,7 +2256,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>43678</v>
       </c>
@@ -2271,7 +2276,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>43709</v>
       </c>
@@ -2291,7 +2296,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="39"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>43739</v>
       </c>
@@ -2311,7 +2316,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <v>43770</v>
       </c>
@@ -2331,7 +2336,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>43800</v>
       </c>
@@ -2355,7 +2360,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="37" t="s">
         <v>54</v>
       </c>
@@ -2373,7 +2378,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>43831</v>
       </c>
@@ -2393,7 +2398,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
         <v>43862</v>
       </c>
@@ -2413,7 +2418,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="39"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <v>43891</v>
       </c>
@@ -2433,7 +2438,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="39"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>43922</v>
       </c>
@@ -2453,7 +2458,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>43952</v>
       </c>
@@ -2473,7 +2478,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <v>43983</v>
       </c>
@@ -2493,7 +2498,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <v>44013</v>
       </c>
@@ -2513,7 +2518,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <v>44044</v>
       </c>
@@ -2533,7 +2538,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="39"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <v>44075</v>
       </c>
@@ -2553,7 +2558,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="39"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
         <v>44105</v>
       </c>
@@ -2573,7 +2578,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <v>44136</v>
       </c>
@@ -2593,7 +2598,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
         <v>44166</v>
       </c>
@@ -2617,7 +2622,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="37" t="s">
         <v>57</v>
       </c>
@@ -2635,7 +2640,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="24">
         <v>44197</v>
       </c>
@@ -2655,7 +2660,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="39"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <v>44228</v>
       </c>
@@ -2675,7 +2680,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <v>44256</v>
       </c>
@@ -2695,7 +2700,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="24">
         <v>44287</v>
       </c>
@@ -2715,7 +2720,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
         <v>44317</v>
       </c>
@@ -2735,7 +2740,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
         <v>44348</v>
       </c>
@@ -2755,7 +2760,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
         <v>44378</v>
       </c>
@@ -2775,7 +2780,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="39"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="24">
         <v>44409</v>
       </c>
@@ -2795,7 +2800,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <v>44440</v>
       </c>
@@ -2815,7 +2820,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <v>44470</v>
       </c>
@@ -2835,7 +2840,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="39"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
         <v>44501</v>
       </c>
@@ -2861,7 +2866,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="24">
         <v>44531</v>
       </c>
@@ -2881,7 +2886,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="39"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="37" t="s">
         <v>35</v>
       </c>
@@ -2899,7 +2904,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="24">
         <v>44562</v>
       </c>
@@ -2919,7 +2924,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="24">
         <v>44593</v>
       </c>
@@ -2945,7 +2950,7 @@
         <v>44601</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="24"/>
       <c r="B65" s="12" t="s">
         <v>38</v>
@@ -2967,7 +2972,7 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="24">
         <v>44621</v>
       </c>
@@ -2987,7 +2992,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="24">
         <f>EDATE(A66,1)</f>
         <v>44652</v>
@@ -3012,7 +3017,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="24">
         <f t="shared" ref="A68:A71" si="0">EDATE(A67,1)</f>
         <v>44682</v>
@@ -3037,7 +3042,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="24">
         <f t="shared" si="0"/>
         <v>44713</v>
@@ -3062,7 +3067,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="24">
         <f t="shared" si="0"/>
         <v>44743</v>
@@ -3083,7 +3088,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="24">
         <f t="shared" si="0"/>
         <v>44774</v>
@@ -3108,7 +3113,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="39"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="24">
         <f>EDATE(A71,1)</f>
         <v>44805</v>
@@ -3133,7 +3138,7 @@
       <c r="J72" s="13"/>
       <c r="K72" s="16"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="24">
         <f>EDATE(A72,1)</f>
         <v>44835</v>
@@ -3160,7 +3165,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="24">
         <v>44866</v>
       </c>
@@ -3180,7 +3185,7 @@
       <c r="J74" s="12"/>
       <c r="K74" s="21"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="24">
         <v>44896</v>
       </c>
@@ -3204,7 +3209,7 @@
       <c r="J75" s="12"/>
       <c r="K75" s="21"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="37" t="s">
         <v>75</v>
       </c>
@@ -3222,7 +3227,7 @@
       <c r="J76" s="12"/>
       <c r="K76" s="21"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="24">
         <v>44927</v>
       </c>
@@ -3242,7 +3247,7 @@
       <c r="J77" s="12"/>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="24">
         <v>44958</v>
       </c>
@@ -3262,7 +3267,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="24">
         <v>44986</v>
       </c>
@@ -3282,7 +3287,7 @@
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="24">
         <v>45017</v>
       </c>
@@ -3302,7 +3307,7 @@
       <c r="J80" s="12"/>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="24">
         <v>45047</v>
       </c>
@@ -3322,7 +3327,7 @@
       <c r="J81" s="12"/>
       <c r="K81" s="21"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="24">
         <v>45078</v>
       </c>
@@ -3342,7 +3347,7 @@
       <c r="J82" s="12"/>
       <c r="K82" s="21"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="24">
         <v>45108</v>
       </c>
@@ -3362,7 +3367,7 @@
       <c r="J83" s="12"/>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="24">
         <v>45139</v>
       </c>
@@ -3382,7 +3387,7 @@
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="24">
         <v>45170</v>
       </c>
@@ -3402,7 +3407,7 @@
       <c r="J85" s="12"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="24">
         <v>45200</v>
       </c>
@@ -3422,7 +3427,7 @@
       <c r="J86" s="12"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="24">
         <v>45231</v>
       </c>
@@ -3442,47 +3447,51 @@
       <c r="J87" s="12"/>
       <c r="K87" s="21"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="24">
         <v>45261</v>
       </c>
       <c r="B88" s="12"/>
-      <c r="C88" s="14"/>
+      <c r="C88" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D88" s="12"/>
       <c r="E88" s="9"/>
       <c r="F88" s="12"/>
-      <c r="G88" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G88" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H88" s="12"/>
       <c r="I88" s="9"/>
       <c r="J88" s="12"/>
       <c r="K88" s="21"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="24">
-        <v>45292</v>
-      </c>
-      <c r="B89" s="12"/>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B89" s="21"/>
       <c r="C89" s="14"/>
-      <c r="D89" s="12"/>
+      <c r="D89" s="40"/>
       <c r="E89" s="9"/>
-      <c r="F89" s="12"/>
+      <c r="F89" s="21"/>
       <c r="G89" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H89" s="12"/>
+      <c r="H89" s="40"/>
       <c r="I89" s="9"/>
       <c r="J89" s="12"/>
       <c r="K89" s="21"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="24">
-        <v>45323</v>
-      </c>
-      <c r="B90" s="12"/>
+        <v>45292</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>47</v>
+      </c>
       <c r="C90" s="14"/>
       <c r="D90" s="12"/>
       <c r="E90" s="9"/>
@@ -3491,14 +3500,18 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H90" s="12"/>
+      <c r="H90" s="12">
+        <v>2</v>
+      </c>
       <c r="I90" s="9"/>
       <c r="J90" s="12"/>
-      <c r="K90" s="21"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K90" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="24">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B91" s="12"/>
       <c r="C91" s="14"/>
@@ -3514,9 +3527,9 @@
       <c r="J91" s="12"/>
       <c r="K91" s="21"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="24">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B92" s="12"/>
       <c r="C92" s="14"/>
@@ -3532,9 +3545,9 @@
       <c r="J92" s="12"/>
       <c r="K92" s="21"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="24">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B93" s="12"/>
       <c r="C93" s="14"/>
@@ -3550,9 +3563,9 @@
       <c r="J93" s="12"/>
       <c r="K93" s="21"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="24">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B94" s="12"/>
       <c r="C94" s="14"/>
@@ -3568,9 +3581,9 @@
       <c r="J94" s="12"/>
       <c r="K94" s="21"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="24">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B95" s="12"/>
       <c r="C95" s="14"/>
@@ -3586,27 +3599,27 @@
       <c r="J95" s="12"/>
       <c r="K95" s="21"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="24">
+        <v>45474</v>
+      </c>
+      <c r="B96" s="12"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H96" s="12"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="21"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="24">
         <v>45505</v>
-      </c>
-      <c r="B96" s="13"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H96" s="13"/>
-      <c r="I96" s="10"/>
-      <c r="J96" s="13"/>
-      <c r="K96" s="16"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="24">
-        <v>45536</v>
       </c>
       <c r="B97" s="13"/>
       <c r="C97" s="14"/>
@@ -3617,14 +3630,14 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H97" s="12"/>
-      <c r="I97" s="9"/>
-      <c r="J97" s="12"/>
-      <c r="K97" s="21"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H97" s="13"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="13"/>
+      <c r="K97" s="16"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="24">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B98" s="13"/>
       <c r="C98" s="14"/>
@@ -3640,9 +3653,9 @@
       <c r="J98" s="12"/>
       <c r="K98" s="21"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="24">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B99" s="13"/>
       <c r="C99" s="14"/>
@@ -3658,9 +3671,9 @@
       <c r="J99" s="12"/>
       <c r="K99" s="21"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="24">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B100" s="13"/>
       <c r="C100" s="14"/>
@@ -3676,9 +3689,9 @@
       <c r="J100" s="12"/>
       <c r="K100" s="21"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="24">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B101" s="13"/>
       <c r="C101" s="14"/>
@@ -3694,9 +3707,9 @@
       <c r="J101" s="12"/>
       <c r="K101" s="21"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="24">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B102" s="13"/>
       <c r="C102" s="14"/>
@@ -3712,9 +3725,9 @@
       <c r="J102" s="12"/>
       <c r="K102" s="21"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="24">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B103" s="13"/>
       <c r="C103" s="14"/>
@@ -3730,9 +3743,9 @@
       <c r="J103" s="12"/>
       <c r="K103" s="21"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="24">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B104" s="13"/>
       <c r="C104" s="14"/>
@@ -3748,8 +3761,10 @@
       <c r="J104" s="12"/>
       <c r="K104" s="21"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="24"/>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="24">
+        <v>45748</v>
+      </c>
       <c r="B105" s="13"/>
       <c r="C105" s="14"/>
       <c r="D105" s="13"/>
@@ -3764,7 +3779,7 @@
       <c r="J105" s="12"/>
       <c r="K105" s="21"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="24"/>
       <c r="B106" s="13"/>
       <c r="C106" s="14"/>
@@ -3780,7 +3795,7 @@
       <c r="J106" s="12"/>
       <c r="K106" s="21"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="24"/>
       <c r="B107" s="13"/>
       <c r="C107" s="14"/>
@@ -3791,28 +3806,28 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H107" s="13"/>
-      <c r="I107" s="10"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="16"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H107" s="12"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="21"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="24"/>
-      <c r="B108" s="12"/>
+      <c r="B108" s="13"/>
       <c r="C108" s="14"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="12"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="13"/>
       <c r="G108" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H108" s="12"/>
-      <c r="I108" s="9"/>
-      <c r="J108" s="12"/>
-      <c r="K108" s="21"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H108" s="13"/>
+      <c r="I108" s="10"/>
+      <c r="J108" s="13"/>
+      <c r="K108" s="16"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="24"/>
       <c r="B109" s="12"/>
       <c r="C109" s="14"/>
@@ -3828,7 +3843,7 @@
       <c r="J109" s="12"/>
       <c r="K109" s="21"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="24"/>
       <c r="B110" s="12"/>
       <c r="C110" s="14"/>
@@ -3844,7 +3859,7 @@
       <c r="J110" s="12"/>
       <c r="K110" s="21"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="24"/>
       <c r="B111" s="12"/>
       <c r="C111" s="14"/>
@@ -3860,41 +3875,57 @@
       <c r="J111" s="12"/>
       <c r="K111" s="21"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="24"/>
-      <c r="B112" s="13"/>
+      <c r="B112" s="12"/>
       <c r="C112" s="14"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="13"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="12"/>
       <c r="G112" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H112" s="13"/>
-      <c r="I112" s="10"/>
-      <c r="J112" s="13"/>
-      <c r="K112" s="16"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="12"/>
+      <c r="K112" s="21"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="24"/>
+      <c r="B113" s="13"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="13"/>
+      <c r="G113" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H113" s="13"/>
+      <c r="I113" s="10"/>
+      <c r="J113" s="13"/>
+      <c r="K113" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3917,34 +3948,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A79" activePane="bottomLeft"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
+      <selection pane="bottomLeft" activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -3956,16 +3987,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="48"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -3974,16 +4005,16 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="47"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="51"/>
+      <c r="K3" s="52"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -3994,18 +4025,18 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="47"/>
+      <c r="G4" s="48"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="48"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="48"/>
+      <c r="K4" s="49"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -4013,7 +4044,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -4026,24 +4057,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4078,7 +4109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -4102,7 +4133,7 @@
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
         <v>43</v>
       </c>
@@ -4124,7 +4155,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>43101</v>
       </c>
@@ -4146,7 +4177,7 @@
         <v>43130</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="21" t="s">
         <v>44</v>
@@ -4168,7 +4199,7 @@
         <v>43144</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>43132</v>
       </c>
@@ -4192,7 +4223,7 @@
         <v>43179</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>43252</v>
       </c>
@@ -4216,7 +4247,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>43282</v>
       </c>
@@ -4238,7 +4269,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="21" t="s">
         <v>44</v>
@@ -4260,7 +4291,7 @@
         <v>43308</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>43313</v>
       </c>
@@ -4284,7 +4315,7 @@
         <v>43334</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>43344</v>
       </c>
@@ -4308,7 +4339,7 @@
         <v>43350</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="21" t="s">
         <v>44</v>
@@ -4328,7 +4359,7 @@
         <v>43370</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>50</v>
       </c>
@@ -4346,7 +4377,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>43525</v>
       </c>
@@ -4368,7 +4399,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>43709</v>
       </c>
@@ -4392,7 +4423,7 @@
         <v>43673</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>43800</v>
       </c>
@@ -4414,7 +4445,7 @@
         <v>43809</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="37" t="s">
         <v>54</v>
       </c>
@@ -4432,7 +4463,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>43831</v>
       </c>
@@ -4450,7 +4481,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>43862</v>
       </c>
@@ -4472,7 +4503,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="24"/>
       <c r="B27" s="21" t="s">
         <v>55</v>
@@ -4492,7 +4523,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>43891</v>
       </c>
@@ -4514,7 +4545,7 @@
         <v>43902</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>44044</v>
       </c>
@@ -4536,7 +4567,7 @@
         <v>44057</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>44075</v>
       </c>
@@ -4560,7 +4591,7 @@
         <v>44088</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>44166</v>
       </c>
@@ -4584,7 +4615,7 @@
         <v>44193</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="37" t="s">
         <v>57</v>
       </c>
@@ -4602,7 +4633,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>44197</v>
       </c>
@@ -4626,7 +4657,7 @@
         <v>44204</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="24"/>
       <c r="B34" s="21" t="s">
         <v>39</v>
@@ -4646,7 +4677,7 @@
         <v>44225</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>44256</v>
       </c>
@@ -4668,7 +4699,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="24">
         <v>44378</v>
       </c>
@@ -4692,7 +4723,7 @@
         <v>44378</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>44470</v>
       </c>
@@ -4716,7 +4747,7 @@
         <v>44491</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
       <c r="B38" s="21" t="s">
         <v>44</v>
@@ -4738,7 +4769,7 @@
         <v>44496</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="24"/>
       <c r="B39" s="21" t="s">
         <v>44</v>
@@ -4760,7 +4791,7 @@
         <v>44498</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>44501</v>
       </c>
@@ -4784,7 +4815,7 @@
         <v>44519</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="37" t="s">
         <v>35</v>
       </c>
@@ -4802,7 +4833,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <v>44562</v>
       </c>
@@ -4824,7 +4855,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <v>44593</v>
       </c>
@@ -4846,7 +4877,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <v>44774</v>
       </c>
@@ -4870,7 +4901,7 @@
         <v>44792</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="24"/>
       <c r="B45" s="21" t="s">
         <v>47</v>
@@ -4892,7 +4923,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="24"/>
       <c r="B46" s="21" t="s">
         <v>47</v>
@@ -4914,7 +4945,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <v>44805</v>
       </c>
@@ -4938,7 +4969,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="24"/>
       <c r="B48" s="21" t="s">
         <v>44</v>
@@ -4960,7 +4991,7 @@
         <v>44823</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="24"/>
       <c r="B49" s="21" t="s">
         <v>44</v>
@@ -4982,7 +5013,7 @@
         <v>44806</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="24">
         <v>44835</v>
       </c>
@@ -5006,7 +5037,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="37" t="s">
         <v>75</v>
       </c>
@@ -5021,7 +5052,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <v>44927</v>
       </c>
@@ -5040,7 +5071,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="24">
         <v>45017</v>
       </c>
@@ -5061,7 +5092,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="24"/>
       <c r="B54" s="12" t="s">
         <v>45</v>
@@ -5080,7 +5111,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="24"/>
       <c r="B55" s="12" t="s">
         <v>77</v>
@@ -5099,7 +5130,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
         <v>45047</v>
       </c>
@@ -5118,7 +5149,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="24">
         <v>45078</v>
       </c>
@@ -5137,7 +5168,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <v>45104</v>
       </c>
@@ -5158,7 +5189,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <v>45110</v>
       </c>
@@ -5179,7 +5210,7 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
         <v>45106</v>
       </c>
@@ -5200,7 +5231,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="24">
         <v>45112</v>
       </c>
@@ -5221,7 +5252,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="24"/>
       <c r="B62" s="12" t="s">
         <v>45</v>
@@ -5240,7 +5271,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="24"/>
       <c r="B63" s="12" t="s">
         <v>45</v>
@@ -5259,7 +5290,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="24"/>
       <c r="B64" s="12" t="s">
         <v>44</v>
@@ -5278,7 +5309,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="24">
         <v>45133</v>
       </c>
@@ -5299,7 +5330,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="24"/>
       <c r="B66" s="12" t="s">
         <v>45</v>
@@ -5318,7 +5349,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="24">
         <v>45148</v>
       </c>
@@ -5339,7 +5370,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="24"/>
       <c r="B68" s="12" t="s">
         <v>45</v>
@@ -5358,7 +5389,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="24"/>
       <c r="B69" s="12" t="s">
         <v>45</v>
@@ -5377,7 +5408,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="24">
         <v>45173</v>
       </c>
@@ -5398,7 +5429,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="24"/>
       <c r="B71" s="13" t="s">
         <v>45</v>
@@ -5417,7 +5448,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="24"/>
       <c r="B72" s="13" t="s">
         <v>44</v>
@@ -5436,7 +5467,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="24"/>
       <c r="B73" s="13" t="s">
         <v>45</v>
@@ -5455,7 +5486,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="24"/>
       <c r="B74" s="13" t="s">
         <v>45</v>
@@ -5474,7 +5505,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="24">
         <v>45200</v>
       </c>
@@ -5495,7 +5526,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="24"/>
       <c r="B76" s="13" t="s">
         <v>47</v>
@@ -5514,7 +5545,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="24">
         <v>45231</v>
       </c>
@@ -5535,7 +5566,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="24"/>
       <c r="B78" s="13" t="s">
         <v>44</v>
@@ -5554,7 +5585,7 @@
         <v>45233</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="24"/>
       <c r="B79" s="13" t="s">
         <v>44</v>
@@ -5573,7 +5604,7 @@
         <v>45250</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="24"/>
       <c r="B80" s="13" t="s">
         <v>47</v>
@@ -5592,7 +5623,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="24">
         <v>45258</v>
       </c>
@@ -5616,7 +5647,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="24"/>
       <c r="B82" s="13" t="s">
         <v>47</v>
@@ -5638,7 +5669,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="24"/>
       <c r="B83" s="12"/>
       <c r="C83" s="14"/>
@@ -5654,7 +5685,7 @@
       <c r="J83" s="12"/>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="24"/>
       <c r="B84" s="12"/>
       <c r="C84" s="14"/>
@@ -5670,7 +5701,7 @@
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="24"/>
       <c r="B85" s="12"/>
       <c r="C85" s="14"/>
@@ -5686,7 +5717,7 @@
       <c r="J85" s="12"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="24"/>
       <c r="B86" s="12"/>
       <c r="C86" s="14"/>
@@ -5702,7 +5733,7 @@
       <c r="J86" s="12"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="24"/>
       <c r="B87" s="13"/>
       <c r="C87" s="14"/>
@@ -5733,10 +5764,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5759,28 +5790,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="54" t="s">
         <v>33</v>
       </c>
@@ -5793,7 +5824,7 @@
       <c r="K1" s="55"/>
       <c r="L1" s="55"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>24</v>
       </c>
@@ -5822,7 +5853,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="38">
         <v>117.661</v>
       </c>
@@ -5848,7 +5879,7 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" s="1" t="str">
         <f>IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2))</f>
         <v/>
@@ -5863,10 +5894,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="35" t="s">
         <v>28</v>
       </c>
@@ -5886,7 +5917,7 @@
       <c r="K6" s="56"/>
       <c r="L6" s="56"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -5912,7 +5943,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -5938,7 +5969,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -5964,7 +5995,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -5990,7 +6021,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -6016,7 +6047,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -6042,7 +6073,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -6068,7 +6099,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -6094,7 +6125,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -6114,7 +6145,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -6134,7 +6165,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -6154,7 +6185,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -6175,7 +6206,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -6196,7 +6227,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -6217,7 +6248,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -6238,7 +6269,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -6259,7 +6290,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -6280,7 +6311,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -6301,7 +6332,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -6322,7 +6353,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -6343,7 +6374,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -6364,7 +6395,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -6385,7 +6416,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -6406,7 +6437,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -6427,7 +6458,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -6448,7 +6479,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -6469,7 +6500,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -6490,7 +6521,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -6511,7 +6542,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -6532,7 +6563,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -6553,7 +6584,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -6574,7 +6605,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -6583,7 +6614,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -6592,7 +6623,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -6601,7 +6632,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -6610,7 +6641,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -6619,7 +6650,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -6628,7 +6659,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -6637,7 +6668,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -6646,7 +6677,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -6655,7 +6686,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -6664,7 +6695,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -6673,7 +6704,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -6682,7 +6713,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -6691,7 +6722,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -6700,7 +6731,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -6709,7 +6740,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -6718,7 +6749,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -6727,7 +6758,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -6736,7 +6767,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -6745,7 +6776,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -6754,7 +6785,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -6763,7 +6794,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -6772,7 +6803,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -6781,7 +6812,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -6790,7 +6821,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -6799,7 +6830,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -6808,7 +6839,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -6817,7 +6848,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -6826,7 +6857,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -6835,7 +6866,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/CASUAL/LA GSO/GONZALES, MARIO.xlsx
+++ b/CASUAL/LA GSO/GONZALES, MARIO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA GSO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA GSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD24318F-A827-4FF9-B2E7-8FED7D058917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="3" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="109">
   <si>
     <t>PERIOD</t>
   </si>
@@ -368,7 +369,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -726,14 +727,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -743,9 +747,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1257,7 +1258,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1274,25 +1275,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K113" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K113" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1304,25 +1305,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K87" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K87" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1629,34 +1630,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A85" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A85" activePane="bottomLeft"/>
       <selection activeCell="D8" sqref="D8"/>
-      <selection pane="bottomLeft" activeCell="K90" sqref="K90"/>
+      <selection pane="bottomLeft" activeCell="K92" sqref="K92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1668,16 +1669,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="47"/>
+      <c r="K2" s="48"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1686,16 +1687,16 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="48"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="52"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -1706,18 +1707,18 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="48"/>
+      <c r="G4" s="47"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="47"/>
+      <c r="K4" s="48"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -1725,7 +1726,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -1738,24 +1739,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1790,7 +1791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1799,7 +1800,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>64.646000000000001</v>
+        <v>65.896000000000001</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1809,12 +1810,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>88</v>
+        <v>88.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
         <v>43</v>
       </c>
@@ -1836,7 +1837,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>43101</v>
       </c>
@@ -1856,7 +1857,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="39"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <v>43132</v>
       </c>
@@ -1876,7 +1877,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="39"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>43160</v>
       </c>
@@ -1896,7 +1897,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>43191</v>
       </c>
@@ -1916,7 +1917,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <v>43221</v>
       </c>
@@ -1936,7 +1937,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>43252</v>
       </c>
@@ -1962,7 +1963,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>43282</v>
       </c>
@@ -1982,7 +1983,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="39"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>43313</v>
       </c>
@@ -2002,7 +2003,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="39"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <v>43344</v>
       </c>
@@ -2028,7 +2029,7 @@
         <v>43371</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="24">
         <v>43374</v>
       </c>
@@ -2048,7 +2049,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="24">
         <v>43405</v>
       </c>
@@ -2068,7 +2069,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="24">
         <v>43435</v>
       </c>
@@ -2092,7 +2093,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="37" t="s">
         <v>50</v>
       </c>
@@ -2110,7 +2111,7 @@
       <c r="J23" s="12"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="24">
         <v>43466</v>
       </c>
@@ -2130,7 +2131,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="24">
         <v>43497</v>
       </c>
@@ -2150,7 +2151,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="24">
         <v>43525</v>
       </c>
@@ -2176,7 +2177,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
         <v>43556</v>
       </c>
@@ -2196,7 +2197,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="24">
         <v>43586</v>
       </c>
@@ -2216,7 +2217,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="24">
         <v>43617</v>
       </c>
@@ -2236,7 +2237,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="24">
         <v>43647</v>
       </c>
@@ -2256,7 +2257,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="24">
         <v>43678</v>
       </c>
@@ -2276,7 +2277,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="24">
         <v>43709</v>
       </c>
@@ -2296,7 +2297,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="39"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="24">
         <v>43739</v>
       </c>
@@ -2316,7 +2317,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="24">
         <v>43770</v>
       </c>
@@ -2336,7 +2337,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="24">
         <v>43800</v>
       </c>
@@ -2360,7 +2361,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="37" t="s">
         <v>54</v>
       </c>
@@ -2378,7 +2379,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="24">
         <v>43831</v>
       </c>
@@ -2398,7 +2399,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="24">
         <v>43862</v>
       </c>
@@ -2418,7 +2419,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="39"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="24">
         <v>43891</v>
       </c>
@@ -2438,7 +2439,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="39"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="24">
         <v>43922</v>
       </c>
@@ -2458,7 +2459,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="24">
         <v>43952</v>
       </c>
@@ -2478,7 +2479,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="24">
         <v>43983</v>
       </c>
@@ -2498,7 +2499,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="24">
         <v>44013</v>
       </c>
@@ -2518,7 +2519,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="24">
         <v>44044</v>
       </c>
@@ -2538,7 +2539,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="39"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="24">
         <v>44075</v>
       </c>
@@ -2558,7 +2559,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="39"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="24">
         <v>44105</v>
       </c>
@@ -2578,7 +2579,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="24">
         <v>44136</v>
       </c>
@@ -2598,7 +2599,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="24">
         <v>44166</v>
       </c>
@@ -2622,7 +2623,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="37" t="s">
         <v>57</v>
       </c>
@@ -2640,7 +2641,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="24">
         <v>44197</v>
       </c>
@@ -2660,7 +2661,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="39"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="24">
         <v>44228</v>
       </c>
@@ -2680,7 +2681,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="24">
         <v>44256</v>
       </c>
@@ -2700,7 +2701,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="24">
         <v>44287</v>
       </c>
@@ -2720,7 +2721,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="24">
         <v>44317</v>
       </c>
@@ -2740,7 +2741,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="24">
         <v>44348</v>
       </c>
@@ -2760,7 +2761,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="24">
         <v>44378</v>
       </c>
@@ -2780,7 +2781,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="39"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="24">
         <v>44409</v>
       </c>
@@ -2800,7 +2801,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="24">
         <v>44440</v>
       </c>
@@ -2820,7 +2821,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="24">
         <v>44470</v>
       </c>
@@ -2840,7 +2841,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="39"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="24">
         <v>44501</v>
       </c>
@@ -2866,7 +2867,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="24">
         <v>44531</v>
       </c>
@@ -2886,7 +2887,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="39"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="37" t="s">
         <v>35</v>
       </c>
@@ -2904,7 +2905,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="24">
         <v>44562</v>
       </c>
@@ -2924,7 +2925,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="24">
         <v>44593</v>
       </c>
@@ -2950,7 +2951,7 @@
         <v>44601</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="24"/>
       <c r="B65" s="12" t="s">
         <v>38</v>
@@ -2972,7 +2973,7 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="24">
         <v>44621</v>
       </c>
@@ -2992,7 +2993,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="24">
         <f>EDATE(A66,1)</f>
         <v>44652</v>
@@ -3017,7 +3018,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="24">
         <f t="shared" ref="A68:A71" si="0">EDATE(A67,1)</f>
         <v>44682</v>
@@ -3042,7 +3043,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="24">
         <f t="shared" si="0"/>
         <v>44713</v>
@@ -3067,7 +3068,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="24">
         <f t="shared" si="0"/>
         <v>44743</v>
@@ -3088,7 +3089,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="24">
         <f t="shared" si="0"/>
         <v>44774</v>
@@ -3113,7 +3114,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="39"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="24">
         <f>EDATE(A71,1)</f>
         <v>44805</v>
@@ -3138,7 +3139,7 @@
       <c r="J72" s="13"/>
       <c r="K72" s="16"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="24">
         <f>EDATE(A72,1)</f>
         <v>44835</v>
@@ -3165,7 +3166,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="24">
         <v>44866</v>
       </c>
@@ -3185,7 +3186,7 @@
       <c r="J74" s="12"/>
       <c r="K74" s="21"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="24">
         <v>44896</v>
       </c>
@@ -3209,7 +3210,7 @@
       <c r="J75" s="12"/>
       <c r="K75" s="21"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="37" t="s">
         <v>75</v>
       </c>
@@ -3227,7 +3228,7 @@
       <c r="J76" s="12"/>
       <c r="K76" s="21"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="24">
         <v>44927</v>
       </c>
@@ -3247,7 +3248,7 @@
       <c r="J77" s="12"/>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="24">
         <v>44958</v>
       </c>
@@ -3267,7 +3268,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="24">
         <v>44986</v>
       </c>
@@ -3287,7 +3288,7 @@
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="24">
         <v>45017</v>
       </c>
@@ -3307,7 +3308,7 @@
       <c r="J80" s="12"/>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="24">
         <v>45047</v>
       </c>
@@ -3327,7 +3328,7 @@
       <c r="J81" s="12"/>
       <c r="K81" s="21"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="24">
         <v>45078</v>
       </c>
@@ -3347,7 +3348,7 @@
       <c r="J82" s="12"/>
       <c r="K82" s="21"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="24">
         <v>45108</v>
       </c>
@@ -3367,7 +3368,7 @@
       <c r="J83" s="12"/>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="24">
         <v>45139</v>
       </c>
@@ -3387,7 +3388,7 @@
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="24">
         <v>45170</v>
       </c>
@@ -3407,7 +3408,7 @@
       <c r="J85" s="12"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="24">
         <v>45200</v>
       </c>
@@ -3427,7 +3428,7 @@
       <c r="J86" s="12"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="24">
         <v>45231</v>
       </c>
@@ -3447,7 +3448,7 @@
       <c r="J87" s="12"/>
       <c r="K87" s="21"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="24">
         <v>45261</v>
       </c>
@@ -3467,7 +3468,7 @@
       <c r="J88" s="12"/>
       <c r="K88" s="21"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="37" t="s">
         <v>107</v>
       </c>
@@ -3485,20 +3486,22 @@
       <c r="J89" s="12"/>
       <c r="K89" s="21"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="24">
         <v>45292</v>
       </c>
       <c r="B90" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C90" s="14"/>
+      <c r="C90" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D90" s="12"/>
       <c r="E90" s="9"/>
       <c r="F90" s="12"/>
-      <c r="G90" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G90" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H90" s="12">
         <v>2</v>
@@ -3509,11 +3512,13 @@
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="24">
         <v>45323</v>
       </c>
-      <c r="B91" s="12"/>
+      <c r="B91" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="C91" s="14"/>
       <c r="D91" s="12"/>
       <c r="E91" s="9"/>
@@ -3522,12 +3527,16 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H91" s="12"/>
+      <c r="H91" s="12">
+        <v>1</v>
+      </c>
       <c r="I91" s="9"/>
       <c r="J91" s="12"/>
-      <c r="K91" s="21"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K91" s="39">
+        <v>45336</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="24">
         <v>45352</v>
       </c>
@@ -3545,7 +3554,7 @@
       <c r="J92" s="12"/>
       <c r="K92" s="21"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="24">
         <v>45383</v>
       </c>
@@ -3563,7 +3572,7 @@
       <c r="J93" s="12"/>
       <c r="K93" s="21"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="24">
         <v>45413</v>
       </c>
@@ -3581,7 +3590,7 @@
       <c r="J94" s="12"/>
       <c r="K94" s="21"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="24">
         <v>45444</v>
       </c>
@@ -3599,7 +3608,7 @@
       <c r="J95" s="12"/>
       <c r="K95" s="21"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="24">
         <v>45474</v>
       </c>
@@ -3617,7 +3626,7 @@
       <c r="J96" s="12"/>
       <c r="K96" s="21"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="24">
         <v>45505</v>
       </c>
@@ -3635,7 +3644,7 @@
       <c r="J97" s="13"/>
       <c r="K97" s="16"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="24">
         <v>45536</v>
       </c>
@@ -3653,7 +3662,7 @@
       <c r="J98" s="12"/>
       <c r="K98" s="21"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="24">
         <v>45566</v>
       </c>
@@ -3671,7 +3680,7 @@
       <c r="J99" s="12"/>
       <c r="K99" s="21"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="24">
         <v>45597</v>
       </c>
@@ -3689,7 +3698,7 @@
       <c r="J100" s="12"/>
       <c r="K100" s="21"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="24">
         <v>45627</v>
       </c>
@@ -3707,7 +3716,7 @@
       <c r="J101" s="12"/>
       <c r="K101" s="21"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="24">
         <v>45658</v>
       </c>
@@ -3725,7 +3734,7 @@
       <c r="J102" s="12"/>
       <c r="K102" s="21"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="24">
         <v>45689</v>
       </c>
@@ -3743,7 +3752,7 @@
       <c r="J103" s="12"/>
       <c r="K103" s="21"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="24">
         <v>45717</v>
       </c>
@@ -3761,7 +3770,7 @@
       <c r="J104" s="12"/>
       <c r="K104" s="21"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="24">
         <v>45748</v>
       </c>
@@ -3779,7 +3788,7 @@
       <c r="J105" s="12"/>
       <c r="K105" s="21"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="24"/>
       <c r="B106" s="13"/>
       <c r="C106" s="14"/>
@@ -3795,7 +3804,7 @@
       <c r="J106" s="12"/>
       <c r="K106" s="21"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="24"/>
       <c r="B107" s="13"/>
       <c r="C107" s="14"/>
@@ -3811,7 +3820,7 @@
       <c r="J107" s="12"/>
       <c r="K107" s="21"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="24"/>
       <c r="B108" s="13"/>
       <c r="C108" s="14"/>
@@ -3827,7 +3836,7 @@
       <c r="J108" s="13"/>
       <c r="K108" s="16"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="24"/>
       <c r="B109" s="12"/>
       <c r="C109" s="14"/>
@@ -3843,7 +3852,7 @@
       <c r="J109" s="12"/>
       <c r="K109" s="21"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="24"/>
       <c r="B110" s="12"/>
       <c r="C110" s="14"/>
@@ -3859,7 +3868,7 @@
       <c r="J110" s="12"/>
       <c r="K110" s="21"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="24"/>
       <c r="B111" s="12"/>
       <c r="C111" s="14"/>
@@ -3875,7 +3884,7 @@
       <c r="J111" s="12"/>
       <c r="K111" s="21"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="24"/>
       <c r="B112" s="12"/>
       <c r="C112" s="14"/>
@@ -3891,7 +3900,7 @@
       <c r="J112" s="12"/>
       <c r="K112" s="21"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="24"/>
       <c r="B113" s="13"/>
       <c r="C113" s="14"/>
@@ -3909,23 +3918,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3948,34 +3957,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K87"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
       <selection pane="bottomLeft" activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -3987,16 +3996,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="47"/>
+      <c r="K2" s="48"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -4005,16 +4014,16 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="48"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="52"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -4025,18 +4034,18 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="48"/>
+      <c r="G4" s="47"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="47"/>
+      <c r="K4" s="48"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -4044,7 +4053,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -4057,24 +4066,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4109,7 +4118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -4133,7 +4142,7 @@
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
         <v>43</v>
       </c>
@@ -4155,7 +4164,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>43101</v>
       </c>
@@ -4177,7 +4186,7 @@
         <v>43130</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="24"/>
       <c r="B12" s="21" t="s">
         <v>44</v>
@@ -4199,7 +4208,7 @@
         <v>43144</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>43132</v>
       </c>
@@ -4223,7 +4232,7 @@
         <v>43179</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>43252</v>
       </c>
@@ -4247,7 +4256,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <v>43282</v>
       </c>
@@ -4269,7 +4278,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="24"/>
       <c r="B16" s="21" t="s">
         <v>44</v>
@@ -4291,7 +4300,7 @@
         <v>43308</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>43313</v>
       </c>
@@ -4315,7 +4324,7 @@
         <v>43334</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>43344</v>
       </c>
@@ -4339,7 +4348,7 @@
         <v>43350</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="24"/>
       <c r="B19" s="21" t="s">
         <v>44</v>
@@ -4359,7 +4368,7 @@
         <v>43370</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
         <v>50</v>
       </c>
@@ -4377,7 +4386,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="24">
         <v>43525</v>
       </c>
@@ -4399,7 +4408,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="24">
         <v>43709</v>
       </c>
@@ -4423,7 +4432,7 @@
         <v>43673</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="24">
         <v>43800</v>
       </c>
@@ -4445,7 +4454,7 @@
         <v>43809</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="37" t="s">
         <v>54</v>
       </c>
@@ -4463,7 +4472,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="24">
         <v>43831</v>
       </c>
@@ -4481,7 +4490,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="24">
         <v>43862</v>
       </c>
@@ -4503,7 +4512,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="24"/>
       <c r="B27" s="21" t="s">
         <v>55</v>
@@ -4523,7 +4532,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="24">
         <v>43891</v>
       </c>
@@ -4545,7 +4554,7 @@
         <v>43902</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="24">
         <v>44044</v>
       </c>
@@ -4567,7 +4576,7 @@
         <v>44057</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="24">
         <v>44075</v>
       </c>
@@ -4591,7 +4600,7 @@
         <v>44088</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="24">
         <v>44166</v>
       </c>
@@ -4615,7 +4624,7 @@
         <v>44193</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="37" t="s">
         <v>57</v>
       </c>
@@ -4633,7 +4642,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="24">
         <v>44197</v>
       </c>
@@ -4657,7 +4666,7 @@
         <v>44204</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="24"/>
       <c r="B34" s="21" t="s">
         <v>39</v>
@@ -4677,7 +4686,7 @@
         <v>44225</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="24">
         <v>44256</v>
       </c>
@@ -4699,7 +4708,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="24">
         <v>44378</v>
       </c>
@@ -4723,7 +4732,7 @@
         <v>44378</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="24">
         <v>44470</v>
       </c>
@@ -4747,7 +4756,7 @@
         <v>44491</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="24"/>
       <c r="B38" s="21" t="s">
         <v>44</v>
@@ -4769,7 +4778,7 @@
         <v>44496</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="24"/>
       <c r="B39" s="21" t="s">
         <v>44</v>
@@ -4791,7 +4800,7 @@
         <v>44498</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="24">
         <v>44501</v>
       </c>
@@ -4815,7 +4824,7 @@
         <v>44519</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="37" t="s">
         <v>35</v>
       </c>
@@ -4833,7 +4842,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="24">
         <v>44562</v>
       </c>
@@ -4855,7 +4864,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="24">
         <v>44593</v>
       </c>
@@ -4877,7 +4886,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="24">
         <v>44774</v>
       </c>
@@ -4901,7 +4910,7 @@
         <v>44792</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="24"/>
       <c r="B45" s="21" t="s">
         <v>47</v>
@@ -4923,7 +4932,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="24"/>
       <c r="B46" s="21" t="s">
         <v>47</v>
@@ -4945,7 +4954,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="24">
         <v>44805</v>
       </c>
@@ -4969,7 +4978,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="24"/>
       <c r="B48" s="21" t="s">
         <v>44</v>
@@ -4991,7 +5000,7 @@
         <v>44823</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="24"/>
       <c r="B49" s="21" t="s">
         <v>44</v>
@@ -5013,7 +5022,7 @@
         <v>44806</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="24">
         <v>44835</v>
       </c>
@@ -5037,7 +5046,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="37" t="s">
         <v>75</v>
       </c>
@@ -5052,7 +5061,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="24">
         <v>44927</v>
       </c>
@@ -5071,7 +5080,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="24">
         <v>45017</v>
       </c>
@@ -5092,7 +5101,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="24"/>
       <c r="B54" s="12" t="s">
         <v>45</v>
@@ -5111,7 +5120,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="24"/>
       <c r="B55" s="12" t="s">
         <v>77</v>
@@ -5130,7 +5139,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="24">
         <v>45047</v>
       </c>
@@ -5149,7 +5158,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="24">
         <v>45078</v>
       </c>
@@ -5168,7 +5177,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="24">
         <v>45104</v>
       </c>
@@ -5189,7 +5198,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="24">
         <v>45110</v>
       </c>
@@ -5210,7 +5219,7 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="24">
         <v>45106</v>
       </c>
@@ -5231,7 +5240,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="24">
         <v>45112</v>
       </c>
@@ -5252,7 +5261,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="24"/>
       <c r="B62" s="12" t="s">
         <v>45</v>
@@ -5271,7 +5280,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="24"/>
       <c r="B63" s="12" t="s">
         <v>45</v>
@@ -5290,7 +5299,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="24"/>
       <c r="B64" s="12" t="s">
         <v>44</v>
@@ -5309,7 +5318,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="24">
         <v>45133</v>
       </c>
@@ -5330,7 +5339,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="24"/>
       <c r="B66" s="12" t="s">
         <v>45</v>
@@ -5349,7 +5358,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="24">
         <v>45148</v>
       </c>
@@ -5370,7 +5379,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="24"/>
       <c r="B68" s="12" t="s">
         <v>45</v>
@@ -5389,7 +5398,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="24"/>
       <c r="B69" s="12" t="s">
         <v>45</v>
@@ -5408,7 +5417,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="24">
         <v>45173</v>
       </c>
@@ -5429,7 +5438,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="24"/>
       <c r="B71" s="13" t="s">
         <v>45</v>
@@ -5448,7 +5457,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="24"/>
       <c r="B72" s="13" t="s">
         <v>44</v>
@@ -5467,7 +5476,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="24"/>
       <c r="B73" s="13" t="s">
         <v>45</v>
@@ -5486,7 +5495,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="24"/>
       <c r="B74" s="13" t="s">
         <v>45</v>
@@ -5505,7 +5514,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="24">
         <v>45200</v>
       </c>
@@ -5526,7 +5535,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="24"/>
       <c r="B76" s="13" t="s">
         <v>47</v>
@@ -5545,7 +5554,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="24">
         <v>45231</v>
       </c>
@@ -5566,7 +5575,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="24"/>
       <c r="B78" s="13" t="s">
         <v>44</v>
@@ -5585,7 +5594,7 @@
         <v>45233</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="24"/>
       <c r="B79" s="13" t="s">
         <v>44</v>
@@ -5604,7 +5613,7 @@
         <v>45250</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="24"/>
       <c r="B80" s="13" t="s">
         <v>47</v>
@@ -5623,7 +5632,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="24">
         <v>45258</v>
       </c>
@@ -5647,7 +5656,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="24"/>
       <c r="B82" s="13" t="s">
         <v>47</v>
@@ -5669,7 +5678,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="24"/>
       <c r="B83" s="12"/>
       <c r="C83" s="14"/>
@@ -5685,7 +5694,7 @@
       <c r="J83" s="12"/>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="24"/>
       <c r="B84" s="12"/>
       <c r="C84" s="14"/>
@@ -5701,7 +5710,7 @@
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="24"/>
       <c r="B85" s="12"/>
       <c r="C85" s="14"/>
@@ -5717,7 +5726,7 @@
       <c r="J85" s="12"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="24"/>
       <c r="B86" s="12"/>
       <c r="C86" s="14"/>
@@ -5733,7 +5742,7 @@
       <c r="J86" s="12"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="24"/>
       <c r="B87" s="13"/>
       <c r="C87" s="14"/>
@@ -5764,10 +5773,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5790,28 +5799,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="54" t="s">
         <v>33</v>
       </c>
@@ -5824,7 +5833,7 @@
       <c r="K1" s="55"/>
       <c r="L1" s="55"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>24</v>
       </c>
@@ -5853,7 +5862,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="38">
         <v>117.661</v>
       </c>
@@ -5879,7 +5888,7 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E4" s="1" t="str">
         <f>IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2))</f>
         <v/>
@@ -5894,10 +5903,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="35" t="s">
         <v>28</v>
       </c>
@@ -5917,7 +5926,7 @@
       <c r="K6" s="56"/>
       <c r="L6" s="56"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -5943,7 +5952,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -5969,7 +5978,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -5995,7 +6004,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -6021,7 +6030,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -6047,7 +6056,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -6073,7 +6082,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -6099,7 +6108,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -6125,7 +6134,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -6145,7 +6154,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -6165,7 +6174,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -6185,7 +6194,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -6206,7 +6215,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -6227,7 +6236,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -6248,7 +6257,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -6269,7 +6278,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -6290,7 +6299,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -6311,7 +6320,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -6332,7 +6341,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -6353,7 +6362,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -6374,7 +6383,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -6395,7 +6404,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -6416,7 +6425,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -6437,7 +6446,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -6458,7 +6467,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -6479,7 +6488,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -6500,7 +6509,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -6521,7 +6530,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -6542,7 +6551,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -6563,7 +6572,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -6584,7 +6593,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -6605,7 +6614,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -6614,7 +6623,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -6623,7 +6632,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -6632,7 +6641,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -6641,7 +6650,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -6650,7 +6659,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -6659,7 +6668,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -6668,7 +6677,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -6677,7 +6686,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -6686,7 +6695,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -6695,7 +6704,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -6704,7 +6713,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -6713,7 +6722,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -6722,7 +6731,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -6731,7 +6740,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -6740,7 +6749,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -6749,7 +6758,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -6758,7 +6767,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -6767,7 +6776,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -6776,7 +6785,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -6785,7 +6794,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -6794,7 +6803,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -6803,7 +6812,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -6812,7 +6821,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -6821,7 +6830,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -6830,7 +6839,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -6839,7 +6848,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -6848,7 +6857,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -6857,7 +6866,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -6866,7 +6875,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
